--- a/results/Stats_Report_2024-04-27.xlsx
+++ b/results/Stats_Report_2024-04-27.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Player Stats" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Match Report" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Match Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Player Stats" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,1200 +438,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col hidden="1" width="82" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="11" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="15" customWidth="1" min="15" max="15"/>
-    <col width="14" customWidth="1" min="16" max="16"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>riotIdGameName</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>matches</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>game_minutes</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kills</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>deaths</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>assists</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>kda</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>dmg</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>dpm</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>cs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>csm</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>totalCsd14</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>avgCsd14</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>first_blood</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>solo_kills</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>FQCsPeyWrCVbkOy-aioApSwnW_idANVkq7u52thv3BmwQgWwypuAJZqwcjnZ7wb9SnAvf2rMxHTdDA</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Chaffles</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I2" t="n">
-        <v>29378</v>
-      </c>
-      <c r="J2" t="n">
-        <v>573.79</v>
-      </c>
-      <c r="K2" t="n">
-        <v>251</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="M2" t="n">
-        <v>14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>23q-nAJ0xUpoHVVbSepaZY1GzaismXKT6alr90Bgevpn70aJaHStx7tmMR6mPkxB4bkdik9B3oeXKw</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>IamClone</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20866</v>
-      </c>
-      <c r="J3" t="n">
-        <v>407.54</v>
-      </c>
-      <c r="K3" t="n">
-        <v>285</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>J3jt2RM5ZbYKT5GB_cbqWS3IDxI-XsByyy85CCOYrrGThPpNLH3Kpee8tg6EP70BDWCX8vOGYA8GzA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>백지 소라</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21720</v>
-      </c>
-      <c r="J4" t="n">
-        <v>424.22</v>
-      </c>
-      <c r="K4" t="n">
-        <v>374</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>57</v>
-      </c>
-      <c r="N4" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Gz89RwpxHBEBAwxJ3Ky8PRJfhEz2oXrxeYQwxmHk-byAU8OxU-G7L7aZuoEoACp5IlZ40RGSF8llyw</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ganjegreen</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>13</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16316</v>
-      </c>
-      <c r="J5" t="n">
-        <v>318.67</v>
-      </c>
-      <c r="K5" t="n">
-        <v>294</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-59</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-29.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>SmaiuGaV6I0E4QgFuh2d0HxDi4vx_c8IYAxN20Xb5YToagxq4w6Md2SfnIRI-Msm1y5Zwahwy1UDGg</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Drewsph</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6106</v>
-      </c>
-      <c r="J6" t="n">
-        <v>119.26</v>
-      </c>
-      <c r="K6" t="n">
-        <v>43</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-8</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Yx2hh29YAXaN7PN1NUcoNhhrKwxBCRNWnyFB2YrlwVS8lW-JtzUVefS_Ayp8kjJOu6XOg4IfikgyfQ</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MAA DuckJugs</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" t="n">
-        <v>21</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19066</v>
-      </c>
-      <c r="J7" t="n">
-        <v>372.38</v>
-      </c>
-      <c r="K7" t="n">
-        <v>300</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-14</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>-4HhpLDD9bRO-iIGwL02erGrqHRj5Z4Qcd-ESGlEyQdEwQVpYagoBL4p-VYBE0MWUn1fPQjWLTguPg</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Empro</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>11</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G8" t="n">
-        <v>23</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="I8" t="n">
-        <v>29285</v>
-      </c>
-      <c r="J8" t="n">
-        <v>571.97</v>
-      </c>
-      <c r="K8" t="n">
-        <v>338</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>OzEiE66LRYl-Sn_1EMdWFKlWaOrugGt0dJ3Om8Dizm_Ih9ovyRuLSqzruzseY5k9D1uFjnGk7hPBnA</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>redzawsome</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>19</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>32532</v>
-      </c>
-      <c r="J9" t="n">
-        <v>635.39</v>
-      </c>
-      <c r="K9" t="n">
-        <v>297</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-57</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-28.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>oXuV3otBsi99yHtIZLGd-m2Da7SuNESQJZB0FWkzVrSNqw6yJPwiD0EpTBe3L4Uw-pk8uLB1doTxGg</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Oasis RSexy</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>16</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>25</v>
-      </c>
-      <c r="H10" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="I10" t="n">
-        <v>35388</v>
-      </c>
-      <c r="J10" t="n">
-        <v>691.17</v>
-      </c>
-      <c r="K10" t="n">
-        <v>409</v>
-      </c>
-      <c r="L10" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="M10" t="n">
-        <v>59</v>
-      </c>
-      <c r="N10" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>KU-vzFFra5g7mn9TWm-FgZQQZkhGpo5PCG1WySTcAEOu-hUn4rPtgMHREJ0S7fsbuqpm6Pbiq5FaqQ</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Doretha728</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" t="n">
-        <v>38</v>
-      </c>
-      <c r="H11" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>26323</v>
-      </c>
-      <c r="J11" t="n">
-        <v>514.12</v>
-      </c>
-      <c r="K11" t="n">
-        <v>59</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M11" t="n">
-        <v>8</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>-6WdjgiRoO8t7wtr-wt4stuOSt6DZJ1whJfdzlNJonZGx8nj77mSwJr7MtnHpo_VP3XSJ0URl9hIEQ</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>HPZ Tea Jay</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-      <c r="G12" t="n">
-        <v>12</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="I12" t="n">
-        <v>33095</v>
-      </c>
-      <c r="J12" t="n">
-        <v>485.26</v>
-      </c>
-      <c r="K12" t="n">
-        <v>395</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-61</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-30.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>ZaFqIgTOw6WcgV-BbbTIHyq9ypzqO58N-By8VyGZwQbV5H7m3_Z-VkBA6hhdMkPNqUgxcDS3Dy1LVQ</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>JustaWittleGuy</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G13" t="n">
-        <v>25</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>32204</v>
-      </c>
-      <c r="J13" t="n">
-        <v>472.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>411</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="M13" t="n">
-        <v>35</v>
-      </c>
-      <c r="N13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>-WIu7G0rI7-LnoZ58zxl5S_TehtKdgisk4UBSh8G_-szNkce75UUGxnrQcyh4CyPPErTuHE32vIxzg</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CrimsonYoni</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-      <c r="G14" t="n">
-        <v>20</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="I14" t="n">
-        <v>29731</v>
-      </c>
-      <c r="J14" t="n">
-        <v>435.94</v>
-      </c>
-      <c r="K14" t="n">
-        <v>363</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="M14" t="n">
-        <v>-47</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-23.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>W5XJAD7byGBFpxtgh5Zn7-VcZ3pnKaAInHHyq3S0fLGIlU2c6Fq_dGfx_r-cBw99muBdikoTWsiVhQ</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>agateo</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>22</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>12</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="I15" t="n">
-        <v>61074</v>
-      </c>
-      <c r="J15" t="n">
-        <v>895.51</v>
-      </c>
-      <c r="K15" t="n">
-        <v>480</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="M15" t="n">
-        <v>6</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>uAzuWCCd6j0k0vqec-9c4W9cZCh_f73MwBb8kQOGW-WZJPJJnRwbF8cyj2cH_y49rfu6ja2oBjmtBw</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Abraxo</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" t="n">
-        <v>30</v>
-      </c>
-      <c r="H16" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13407</v>
-      </c>
-      <c r="J16" t="n">
-        <v>196.58</v>
-      </c>
-      <c r="K16" t="n">
-        <v>60</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="M16" t="n">
-        <v>-19</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-9.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>zGbCwhM4U37_lqlbGOEQI5nPPR3fUs-4JosQuvksL0Wzc-HOZNsBX_spcDzmRPdUO6y0ynFCIyS9eg</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Oasis psychotikk</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="I17" t="n">
-        <v>42542</v>
-      </c>
-      <c r="J17" t="n">
-        <v>623.78</v>
-      </c>
-      <c r="K17" t="n">
-        <v>553</v>
-      </c>
-      <c r="L17" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="M17" t="n">
-        <v>61</v>
-      </c>
-      <c r="N17" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>r2IGDxPoDHE3UvFgheESemF-I9vAzWmaOFV91-Hb0r1AaIr8qZCWGvpatJnYwb-ZdMQ8onUTvh7F0A</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>11</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16095</v>
-      </c>
-      <c r="J18" t="n">
-        <v>236</v>
-      </c>
-      <c r="K18" t="n">
-        <v>317</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="M18" t="n">
-        <v>-35</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-17.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>CJFmfl--EjAIuNJ43ttUZR2DQjYYj9rY4feweHwAPJEFYblrjlYFYipPC8RkrUpHEmtUlkNQdq7wqA</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SimonLowell</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
-      </c>
-      <c r="G19" t="n">
-        <v>13</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="I19" t="n">
-        <v>61179</v>
-      </c>
-      <c r="J19" t="n">
-        <v>897.05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>447</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="M19" t="n">
-        <v>47</v>
-      </c>
-      <c r="N19" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>FUyGrN_QbW6A-Tg-zPBsUuBYyWS6jmIsrvM5p5swd31CqeoLjwJEhndAhueRZsU5Stfs3_U7fyyqGg</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>bezzaboyo</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>11</v>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-      <c r="G20" t="n">
-        <v>10</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43867</v>
-      </c>
-      <c r="J20" t="n">
-        <v>643.21</v>
-      </c>
-      <c r="K20" t="n">
-        <v>551</v>
-      </c>
-      <c r="L20" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="M20" t="n">
-        <v>-6</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>b9Dv3dTtRVGgBQvpJgu5tkclCN8VyFqO6KPRzKG8Wbo_yR_JAm2CnhcTqw4_8q3mktm8tgGHkyxVTA</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Oasis Jags</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>11</v>
-      </c>
-      <c r="G21" t="n">
-        <v>20</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10416</v>
-      </c>
-      <c r="J21" t="n">
-        <v>152.73</v>
-      </c>
-      <c r="K21" t="n">
-        <v>88</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M21" t="n">
-        <v>19</v>
-      </c>
-      <c r="N21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6205,4 +5011,1198 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col hidden="1" width="82" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>riotIdGameName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>matches</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>game_minutes</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>kills</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>assists</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>kda</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>dmg</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>dpm</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>totalCsd14</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>avgCsd14</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>first_blood</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>solo_kills</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FQCsPeyWrCVbkOy-aioApSwnW_idANVkq7u52thv3BmwQgWwypuAJZqwcjnZ7wb9SnAvf2rMxHTdDA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chaffles</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>29378</v>
+      </c>
+      <c r="J2" t="n">
+        <v>573.79</v>
+      </c>
+      <c r="K2" t="n">
+        <v>251</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>23q-nAJ0xUpoHVVbSepaZY1GzaismXKT6alr90Bgevpn70aJaHStx7tmMR6mPkxB4bkdik9B3oeXKw</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>IamClone</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20866</v>
+      </c>
+      <c r="J3" t="n">
+        <v>407.54</v>
+      </c>
+      <c r="K3" t="n">
+        <v>285</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>J3jt2RM5ZbYKT5GB_cbqWS3IDxI-XsByyy85CCOYrrGThPpNLH3Kpee8tg6EP70BDWCX8vOGYA8GzA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>백지 소라</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21720</v>
+      </c>
+      <c r="J4" t="n">
+        <v>424.22</v>
+      </c>
+      <c r="K4" t="n">
+        <v>374</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>57</v>
+      </c>
+      <c r="N4" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Gz89RwpxHBEBAwxJ3Ky8PRJfhEz2oXrxeYQwxmHk-byAU8OxU-G7L7aZuoEoACp5IlZ40RGSF8llyw</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ganjegreen</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16316</v>
+      </c>
+      <c r="J5" t="n">
+        <v>318.67</v>
+      </c>
+      <c r="K5" t="n">
+        <v>294</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-59</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-29.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>SmaiuGaV6I0E4QgFuh2d0HxDi4vx_c8IYAxN20Xb5YToagxq4w6Md2SfnIRI-Msm1y5Zwahwy1UDGg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Drewsph</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6106</v>
+      </c>
+      <c r="J6" t="n">
+        <v>119.26</v>
+      </c>
+      <c r="K6" t="n">
+        <v>43</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Yx2hh29YAXaN7PN1NUcoNhhrKwxBCRNWnyFB2YrlwVS8lW-JtzUVefS_Ayp8kjJOu6XOg4IfikgyfQ</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MAA DuckJugs</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19066</v>
+      </c>
+      <c r="J7" t="n">
+        <v>372.38</v>
+      </c>
+      <c r="K7" t="n">
+        <v>300</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-14</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>-4HhpLDD9bRO-iIGwL02erGrqHRj5Z4Qcd-ESGlEyQdEwQVpYagoBL4p-VYBE0MWUn1fPQjWLTguPg</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Empro</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>23</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="I8" t="n">
+        <v>29285</v>
+      </c>
+      <c r="J8" t="n">
+        <v>571.97</v>
+      </c>
+      <c r="K8" t="n">
+        <v>338</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>OzEiE66LRYl-Sn_1EMdWFKlWaOrugGt0dJ3Om8Dizm_Ih9ovyRuLSqzruzseY5k9D1uFjnGk7hPBnA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>redzawsome</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>32532</v>
+      </c>
+      <c r="J9" t="n">
+        <v>635.39</v>
+      </c>
+      <c r="K9" t="n">
+        <v>297</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-57</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-28.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>oXuV3otBsi99yHtIZLGd-m2Da7SuNESQJZB0FWkzVrSNqw6yJPwiD0EpTBe3L4Uw-pk8uLB1doTxGg</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Oasis RSexy</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>35388</v>
+      </c>
+      <c r="J10" t="n">
+        <v>691.17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>409</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>59</v>
+      </c>
+      <c r="N10" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>KU-vzFFra5g7mn9TWm-FgZQQZkhGpo5PCG1WySTcAEOu-hUn4rPtgMHREJ0S7fsbuqpm6Pbiq5FaqQ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Doretha728</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>38</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>26323</v>
+      </c>
+      <c r="J11" t="n">
+        <v>514.12</v>
+      </c>
+      <c r="K11" t="n">
+        <v>59</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>-6WdjgiRoO8t7wtr-wt4stuOSt6DZJ1whJfdzlNJonZGx8nj77mSwJr7MtnHpo_VP3XSJ0URl9hIEQ</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HPZ Tea Jay</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>33095</v>
+      </c>
+      <c r="J12" t="n">
+        <v>485.26</v>
+      </c>
+      <c r="K12" t="n">
+        <v>395</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-61</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-30.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>ZaFqIgTOw6WcgV-BbbTIHyq9ypzqO58N-By8VyGZwQbV5H7m3_Z-VkBA6hhdMkPNqUgxcDS3Dy1LVQ</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>JustaWittleGuy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>32204</v>
+      </c>
+      <c r="J13" t="n">
+        <v>472.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>411</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="M13" t="n">
+        <v>35</v>
+      </c>
+      <c r="N13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>-WIu7G0rI7-LnoZ58zxl5S_TehtKdgisk4UBSh8G_-szNkce75UUGxnrQcyh4CyPPErTuHE32vIxzg</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CrimsonYoni</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="I14" t="n">
+        <v>29731</v>
+      </c>
+      <c r="J14" t="n">
+        <v>435.94</v>
+      </c>
+      <c r="K14" t="n">
+        <v>363</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-47</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>W5XJAD7byGBFpxtgh5Zn7-VcZ3pnKaAInHHyq3S0fLGIlU2c6Fq_dGfx_r-cBw99muBdikoTWsiVhQ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>agateo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>22</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="I15" t="n">
+        <v>61074</v>
+      </c>
+      <c r="J15" t="n">
+        <v>895.51</v>
+      </c>
+      <c r="K15" t="n">
+        <v>480</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>uAzuWCCd6j0k0vqec-9c4W9cZCh_f73MwBb8kQOGW-WZJPJJnRwbF8cyj2cH_y49rfu6ja2oBjmtBw</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Abraxo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13407</v>
+      </c>
+      <c r="J16" t="n">
+        <v>196.58</v>
+      </c>
+      <c r="K16" t="n">
+        <v>60</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-19</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>zGbCwhM4U37_lqlbGOEQI5nPPR3fUs-4JosQuvksL0Wzc-HOZNsBX_spcDzmRPdUO6y0ynFCIyS9eg</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Oasis psychotikk</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I17" t="n">
+        <v>42542</v>
+      </c>
+      <c r="J17" t="n">
+        <v>623.78</v>
+      </c>
+      <c r="K17" t="n">
+        <v>553</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="M17" t="n">
+        <v>61</v>
+      </c>
+      <c r="N17" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>r2IGDxPoDHE3UvFgheESemF-I9vAzWmaOFV91-Hb0r1AaIr8qZCWGvpatJnYwb-ZdMQ8onUTvh7F0A</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16095</v>
+      </c>
+      <c r="J18" t="n">
+        <v>236</v>
+      </c>
+      <c r="K18" t="n">
+        <v>317</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-35</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CJFmfl--EjAIuNJ43ttUZR2DQjYYj9rY4feweHwAPJEFYblrjlYFYipPC8RkrUpHEmtUlkNQdq7wqA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SimonLowell</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="I19" t="n">
+        <v>61179</v>
+      </c>
+      <c r="J19" t="n">
+        <v>897.05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>447</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="M19" t="n">
+        <v>47</v>
+      </c>
+      <c r="N19" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>FUyGrN_QbW6A-Tg-zPBsUuBYyWS6jmIsrvM5p5swd31CqeoLjwJEhndAhueRZsU5Stfs3_U7fyyqGg</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>bezzaboyo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="I20" t="n">
+        <v>43867</v>
+      </c>
+      <c r="J20" t="n">
+        <v>643.21</v>
+      </c>
+      <c r="K20" t="n">
+        <v>551</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>b9Dv3dTtRVGgBQvpJgu5tkclCN8VyFqO6KPRzKG8Wbo_yR_JAm2CnhcTqw4_8q3mktm8tgGHkyxVTA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Oasis Jags</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n">
+        <v>20</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10416</v>
+      </c>
+      <c r="J21" t="n">
+        <v>152.73</v>
+      </c>
+      <c r="K21" t="n">
+        <v>88</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M21" t="n">
+        <v>19</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>